--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\02_Inventory\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vlad\Desktop\02_Inventory\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F11B5A-2A27-46CD-9E9B-D14A98A42342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03225D-F2C9-4465-A855-FDD62E828E62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="885" windowWidth="22500" windowHeight="14100" tabRatio="650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="540" windowWidth="22500" windowHeight="14100" tabRatio="650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -230,6 +230,67 @@
   </si>
   <si>
     <t>Diamond Hands</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>ModifyPartController,32</t>
+  </si>
+  <si>
+    <t>Remove this String constructor</t>
+  </si>
+  <si>
+    <t>private String errorMessage = new String();</t>
+  </si>
+  <si>
+    <t>private String errorMessage;</t>
+  </si>
+  <si>
+    <t>ModifyPartController, 34</t>
+  </si>
+  <si>
+    <t>Remove this unused "partId" private field</t>
+  </si>
+  <si>
+    <t>private int partId;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Product,61</t>
+  </si>
+  <si>
+    <t>Remove or correct this useless self-assignment</t>
+  </si>
+  <si>
+    <t>associatedParts = associatedParts;</t>
+  </si>
+  <si>
+    <t>this.associatedParts = associatedParts;</t>
+  </si>
+  <si>
+    <t>AddPartController,109</t>
+  </si>
+  <si>
+    <t>Call "result.isPresent()" before accesing the value.</t>
+  </si>
+  <si>
+    <t>if(result.get() == ButtonType.OK) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(result.isPresent())
+            if(result.get() == ButtonType.OK) {</t>
+  </si>
+  <si>
+    <t>AddPartController,87</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed</t>
+  </si>
+  <si>
+    <t>//scene = FXMLLoader.load(getClass().getResource(source));</t>
   </si>
 </sst>
 </file>
@@ -237,15 +298,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="\4\-\6"/>
+    <numFmt numFmtId="164" formatCode="\4\-\6"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,86 +485,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,19 +930,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -886,7 +955,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="18">
@@ -897,14 +966,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="25" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="3">
@@ -915,10 +984,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -928,19 +997,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="26">
         <v>44270</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -963,7 +1032,7 @@
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -978,7 +1047,7 @@
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -993,13 +1062,13 @@
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1011,13 +1080,13 @@
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1029,7 +1098,7 @@
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="21" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1044,13 +1113,13 @@
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1062,13 +1131,13 @@
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1080,11 +1149,11 @@
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1094,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="36"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1103,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="36"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1112,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1121,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1130,7 +1199,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="36"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="16"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1139,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="36"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1148,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="36"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1157,7 +1226,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1211,19 +1280,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1236,7 +1305,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="18">
@@ -1247,14 +1316,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="25" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="3">
@@ -1265,10 +1334,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1280,19 +1349,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="26">
         <v>44270</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1334,7 +1403,7 @@
       <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1349,7 +1418,7 @@
       <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1473,7 +1542,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1494,19 +1563,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1519,7 +1588,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="18">
@@ -1530,14 +1599,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="25" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="3">
@@ -1548,10 +1617,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1563,19 +1632,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="26">
         <v>44270</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1602,7 +1671,7 @@
       <c r="E10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1618,7 +1687,7 @@
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1634,7 +1703,7 @@
       <c r="E12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1831,16 +1900,16 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="6"/>
@@ -1853,19 +1922,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1878,27 +1947,39 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="18">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="36"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1910,8 +1991,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="26">
+        <v>44270</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1930,54 +2013,94 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2143,11 +2266,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>
